--- a/待解决问题.xlsx
+++ b/待解决问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>美术相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>Sword_Elf包含一个比较合适卡通渲染的角色模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多武器可切换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,10 +251,10 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,7 +590,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,60 +600,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -657,19 +661,19 @@
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -677,29 +681,31 @@
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">

--- a/待解决问题.xlsx
+++ b/待解决问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>美术相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左ALT切换持刀姿态，攻击工作均有变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出生点左后方拾取为飞剑，攻击动画均为临时效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不拾取武器鼠标左键有测试用的发射子物体技能，子物体没有加伤害，设计方向有摄像机朝向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各个文件夹内容说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,7 +145,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多武器可切换</t>
+    <t>左ALT切换持刀姿态，攻击动作均有变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不拾取武器鼠标左键有测试用的发射子物体技能，子物体没有加伤害，射击方向为摄像机朝向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,9 +683,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -722,67 +716,67 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/待解决问题.xlsx
+++ b/待解决问题.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>美术相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>不拾取武器鼠标左键有测试用的发射子物体技能，子物体没有加伤害，射击方向为摄像机朝向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多武器切换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,7 +687,9 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
